--- a/dados_entrada2.xlsx
+++ b/dados_entrada2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonioj/Documents/Personal/Projects/conacd-pyomo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acsjunior/Documents/Projects/conacd-pyomo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0C49C6-63B3-E54C-9AB4-BAF521FFD941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0A0370-1E69-FB48-B6FC-055D2552B0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{22439955-D125-0442-84DF-15AE6B248D9B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38360" windowHeight="21100" activeTab="2" xr2:uid="{22439955-D125-0442-84DF-15AE6B248D9B}"/>
   </bookViews>
   <sheets>
     <sheet name="custos" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>custo_unitario</t>
   </si>
@@ -87,6 +85,9 @@
   </si>
   <si>
     <t>Santos</t>
+  </si>
+  <si>
+    <t>demanda</t>
   </si>
 </sst>
 </file>
@@ -657,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE33229-66F8-DB49-BBBA-3953CD218010}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,7 +902,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401486E-223B-B24E-A3B5-6D0B39353418}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,7 +995,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
